--- a/biology/Zoologie/Émeraude_de_Porto_Rico/Émeraude_de_Porto_Rico.xlsx
+++ b/biology/Zoologie/Émeraude_de_Porto_Rico/Émeraude_de_Porto_Rico.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Porto_Rico</t>
+          <t>Émeraude_de_Porto_Rico</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Riccordia maugaeus
 L’émeraude de Porto Rico (Riccordia maugaeus) ou  émeraude de Maugé, est une espèce d'oiseau-mouche (famille des Trochilidae) 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Porto_Rico</t>
+          <t>Émeraude_de_Porto_Rico</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau présente un dimorphisme sexuel. Le mâle a des plumes vertes sur l’ensemble du corps et une queue noire tandis que la femelle a une queue marquée de blanc. Cet oiseau mesure 9 à 11 cm pour une masse allant de 2,8 à 3,6 g. 
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Porto_Rico</t>
+          <t>Émeraude_de_Porto_Rico</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est principalement rencontrée dans les zones montagneuses de Porto Rico, ainsi que sur la côte sud-ouest de l’île principale dans la Forêt d'État de Guánica.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Porto_Rico</t>
+          <t>Émeraude_de_Porto_Rico</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les émeraudes de Porto Rico sont très territoriaux et défendent leurs territoires au prix de poursuites aériennes intenses. 
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Porto_Rico</t>
+          <t>Émeraude_de_Porto_Rico</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se nourrissent d’insectes, d’araignées et de nectar. 
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Porto_Rico</t>
+          <t>Émeraude_de_Porto_Rico</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se reproduisent tout au long de l’année, bien que les nichées soient concentrées avant la saison humide, de février à mai. Les œufs sont très petits, mesurant entre 8 et 13 mm.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89meraude_de_Porto_Rico</t>
+          <t>Émeraude_de_Porto_Rico</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,7 +690,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Puerto Rican Emerald » (voir la liste des auteurs).</t>
         </is>
